--- a/DOCS/Requisitos.xlsx
+++ b/DOCS/Requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
+    <t xml:space="preserve">Obs;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Requisitos Funcionais</t>
   </si>
   <si>
@@ -125,6 +128,13 @@
   </si>
   <si>
     <t xml:space="preserve">O sistema deve ter os dados sensiveis criptografados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em desenvolvimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: admin@admin
+Senha: admin</t>
   </si>
   <si>
     <t xml:space="preserve">RNF3.1</t>
@@ -249,7 +259,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +290,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
@@ -371,15 +387,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -392,6 +416,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +452,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,6 +468,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -446,6 +482,26 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -526,409 +582,448 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="93.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="B11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="B16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="12"/>
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="B19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="41.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="B21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="15"/>
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="15"/>
+      <c r="A25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="15"/>
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14" t="n">
-        <v>44691</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="15"/>
+      <c r="A27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F16" r:id="rId1" display="admin@admin"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/DOCS/Requisitos.xlsx
+++ b/DOCS/Requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">Implementado testes ok</t>
+  </si>
+  <si>
     <t xml:space="preserve">RF1.2</t>
   </si>
   <si>
@@ -134,7 +137,8 @@
   </si>
   <si>
     <t xml:space="preserve">Email: admin@admin
-Senha: admin</t>
+Senha: admin
+Dupla criptografia OK sha1 e md5</t>
   </si>
   <si>
     <t xml:space="preserve">RNF3.1</t>
@@ -205,7 +209,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -258,6 +262,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -387,7 +397,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,6 +511,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,15 +598,15 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="93.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.8"/>
   </cols>
   <sheetData>
@@ -642,11 +656,13 @@
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
@@ -655,16 +671,18 @@
         <v>44691</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>8</v>
@@ -673,16 +691,18 @@
         <v>44691</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>8</v>
@@ -691,14 +711,14 @@
         <v>44691</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>8</v>
@@ -707,14 +727,14 @@
         <v>44691</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>8</v>
@@ -723,14 +743,14 @@
         <v>44691</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>8</v>
@@ -739,14 +759,14 @@
         <v>44691</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>8</v>
@@ -755,14 +775,14 @@
         <v>44691</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>8</v>
@@ -771,14 +791,14 @@
         <v>44691</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -787,14 +807,14 @@
         <v>44691</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>8</v>
@@ -803,14 +823,14 @@
         <v>44691</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="22"/>
@@ -820,7 +840,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>8</v>
@@ -829,14 +849,14 @@
         <v>44691</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>8</v>
@@ -845,18 +865,18 @@
         <v>44691</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="28" t="s">
         <v>37</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>8</v>
@@ -865,7 +885,7 @@
         <v>44691</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>10</v>
@@ -874,7 +894,7 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="22"/>
@@ -884,7 +904,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>8</v>
@@ -893,14 +913,14 @@
         <v>44691</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>8</v>
@@ -909,14 +929,14 @@
         <v>44691</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>8</v>
@@ -925,14 +945,14 @@
         <v>44691</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>8</v>
@@ -941,14 +961,14 @@
         <v>44691</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -958,7 +978,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>8</v>
@@ -967,14 +987,14 @@
         <v>44691</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>8</v>
@@ -983,14 +1003,14 @@
         <v>44691</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -999,14 +1019,14 @@
         <v>44691</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>8</v>
@@ -1015,14 +1035,14 @@
         <v>44691</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" display="admin@admin"/>
+    <hyperlink ref="F16" r:id="rId1" display="Email: admin@admin&#10;Senha: admin"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
